--- a/src/image/test.xlsx
+++ b/src/image/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Nguyễn Minh Hòa</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Ngô Thanh Tâm</t>
+  </si>
+  <si>
+    <t>20/10/2018</t>
+  </si>
+  <si>
+    <t>02/09/1880</t>
   </si>
 </sst>
 </file>
@@ -82,10 +88,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,13 +377,13 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -390,8 +397,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>32997</v>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -417,13 +424,13 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,8 +444,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>32874</v>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
